--- a/xfold/docs/xfold-shortcuts.xlsx
+++ b/xfold/docs/xfold-shortcuts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Links\ahk\xfold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Links\ahk\xfold\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D6D6BC-C02A-4D77-8FF7-33DE5FE39BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0D4B77-A61E-4DFC-9E88-7CD35EC6DE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{73FB8399-4C17-4E0F-81A6-69D82FFF20BC}"/>
+    <workbookView xWindow="21840" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{73FB8399-4C17-4E0F-81A6-69D82FFF20BC}"/>
   </bookViews>
   <sheets>
     <sheet name="shortcuts-default" sheetId="2" r:id="rId1"/>
@@ -30,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -40,7 +43,7 @@
     <author>leexioua</author>
   </authors>
   <commentList>
-    <comment ref="G36" authorId="0" shapeId="0" xr:uid="{AC013A0C-C93B-4643-B8A5-4797F762F159}">
+    <comment ref="G37" authorId="0" shapeId="0" xr:uid="{AC013A0C-C93B-4643-B8A5-4797F762F159}">
       <text>
         <r>
           <rPr>
@@ -123,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="253">
   <si>
     <t>LButton+单键</t>
   </si>
@@ -182,10 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sublime中查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>q</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,18 +317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复制窗口标题到剪贴板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制标题与内容-两行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制标题与内容-单行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>welink-msg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,10 +325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dida365</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,26 +357,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MouseInc二维码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口透明度+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口透明度-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sublime_text.exe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复制文本（移除前置符号）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Space</t>
   </si>
   <si>
@@ -412,10 +379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>w3-info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PotPlayer播放/暂停</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,10 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Capslock+.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保存剪贴板内容到文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,10 +403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Capslock clQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>configbak_Backup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,14 +413,6 @@
     <t>Alt+Tab</t>
   </si>
   <si>
-    <t>getAccAllText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAccInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>打开keepass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,10 +469,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RAlt双键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Win+-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -546,10 +489,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LButton+Ctrl+C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LButton+Ctrl+V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -582,10 +521,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xfold-cmd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,14 +537,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧路英语查词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>eudic.exe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -638,10 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PotPlayer 取消字幕循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文件对话框快速跳转目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -658,53 +581,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看xfold收藏的笔记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制窗口进程名称到剪贴板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有道英语查词选中文本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Youtube搜索选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xfold笔记收藏 选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行/打开选中对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>collect-cmd-v2笔记收藏 选中文本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mail-cmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl+Alt+\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ctrl+Alt+R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SwitchOn开关切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeyondCompare4</t>
-  </si>
-  <si>
     <t>cmd.exe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -717,10 +605,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预览当前文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chrome.exe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -737,338 +621,459 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Everything.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换窗口QuickLook（如有）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>edit(#笔记索引入口.md)</t>
-  </si>
-  <si>
-    <t>ahk-中文手册</t>
-  </si>
-  <si>
     <t>Yzime造词</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>谷歌地图搜索-选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧路英语查词-选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本编辑器打开-选中文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>印象笔记搜索-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件搜索-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hr-info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B站搜索-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>` 长按</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WizTree64.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab Tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+Q Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quick-index.xlsm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活QuickLook窗口</t>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制选择文本到上个应用窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xfold命令行</t>
+  </si>
+  <si>
+    <t>xfold命令行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PotPlayer添加标签</t>
+  </si>
+  <si>
+    <t>nlog笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行/打开-选中文本</t>
+  </si>
+  <si>
+    <t>运行/打开-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouseinc剪贴板二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC新增任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3搜索-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEEXIOUA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT (keys.txt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为术语搜索-选中文本</t>
+  </si>
+  <si>
+    <t>华为翻译搜索-选中文本</t>
+  </si>
+  <si>
+    <t>滴答清单365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义OP-map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xfold命令行-默认填写选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制窗口标题</t>
+  </si>
+  <si>
+    <t>复制窗口进程名</t>
+  </si>
+  <si>
+    <t>COA搜索-选中文本</t>
+  </si>
+  <si>
+    <t>PixPin截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PixPin贴图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重做xfold上一命令行</t>
+  </si>
+  <si>
+    <t>重做xfold上一热键</t>
+  </si>
+  <si>
+    <t>文本编辑器打开-选中文本</t>
+  </si>
+  <si>
+    <t>Bing搜索-选中文本</t>
   </si>
   <si>
     <t>豆瓣搜索-选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有道英语查词-选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语搜索-选中文本</t>
   </si>
   <si>
     <t>谷歌搜索-选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度搜索-选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预览查看-选中文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌图片搜索-选中文本</t>
+  </si>
+  <si>
+    <t>保存笔记-选中文本</t>
+  </si>
+  <si>
+    <t>复制窗口标题与内容-单行-选中文本</t>
+  </si>
+  <si>
+    <t>预览-选中文本</t>
+  </si>
+  <si>
+    <t>Forvo发音搜索-选中文本</t>
+  </si>
+  <si>
+    <t>Youtube搜索-选中文本</t>
   </si>
   <si>
     <t>知乎搜索-选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keys-user.txt;keys-default.txt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印象笔记搜索-选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度地图搜索-选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forvo发音查询-选中文本</t>
-  </si>
-  <si>
-    <t>Forvo发音查询-选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷歌图片搜索-选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东搜索-选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件搜索-选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hr-info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adcTaskAdd</t>
-  </si>
-  <si>
-    <t>Ctrl+/ /</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼠标左键按住-开关切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl+\ \</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼠标左键按住-临时按下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动提取行尾路径打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼠标左键按住-临时按下</t>
-  </si>
-  <si>
-    <t>B站搜索-选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noteit-alist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Everything搜索选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EV搜索选中文本（截取文件名）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Esc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>` 长按</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转 @Symbol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WizTree64.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win+D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shift+D D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gobal (for matepad)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为述语查询-选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT (keys-user.txt, keys-default.txt)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEEXIOUA (keys-leexioua.txt, keys-user.txt, keys-default.txt)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tab Tab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl+Q Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单页视图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双面视图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>书籍视图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信搜索选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2Assort笔记搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印象笔记搜索标签-选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quick-index.xlsm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行/打开选中对象</t>
-  </si>
-  <si>
-    <t>激活QuickLook窗口</t>
-  </si>
-  <si>
-    <t>alist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Youglish-en</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xfold-cmd 粘贴选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xmd-redo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为翻译-选中文本</t>
-  </si>
-  <si>
-    <t>COA查询-选中文本</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 1 1 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长按F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 3 3 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长按F3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xfoldCmdlineRun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预览 xview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Explorer.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>save-to-sublimetext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hifini-音乐搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截图-PixPin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴图-PixPin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hotkey-redo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nlog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x-text-search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制选择文本到上个应用窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Appkey-右键菜单</t>
+  </si>
+  <si>
+    <t>复制窗口标题与内容-两行-选中文本</t>
+  </si>
+  <si>
+    <t>打开笔记保存文件</t>
+  </si>
+  <si>
+    <t>关闭当前窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粘贴文本内容</t>
+  </si>
+  <si>
+    <t>打开BC4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alist笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHK帮助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存笔记到nlog-窗口标题与选中文本</t>
+  </si>
+  <si>
+    <t>保存笔记到nlog-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版WeLink搜索-选中文本</t>
+  </si>
+  <si>
+    <t>iHR搜索-选中文本</t>
+  </si>
+  <si>
+    <t>搜狗-微信搜索-选择文本</t>
+  </si>
+  <si>
+    <t>xfoldCmdlineRun-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取打开行尾的网址-选择文本</t>
+  </si>
+  <si>
+    <t>隐藏当前窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节窗口透明度-增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节窗口透明度-减小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capslock-plus-QBar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时笔记到ideas-选中文本</t>
+  </si>
+  <si>
+    <t>临时笔记到ideas-窗口标题与选中文本</t>
+  </si>
+  <si>
+    <t>GTD文档搜索-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索部门人员情况-Outlook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EV搜索-文件名截断-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Everything搜索-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索笔记文件-选中文本</t>
+  </si>
+  <si>
+    <t>搜索工作目录笔记文件-选中文本</t>
+  </si>
+  <si>
+    <t>歌曲搜索hifini-选中文本</t>
+  </si>
+  <si>
+    <t>JD京东搜索-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Markmap预览-选中文本</t>
+  </si>
+  <si>
+    <t>nlog笔记搜索-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还原当前窗口-居中90%</t>
+  </si>
+  <si>
+    <t>添加笔记到SublimeText-选中文本</t>
+  </si>
+  <si>
+    <t>添加笔记到alist-选中文本</t>
+  </si>
+  <si>
+    <t>MouseInc右键菜单</t>
+  </si>
+  <si>
+    <t>MouseInc启用切换</t>
+  </si>
+  <si>
+    <t>Youglish搜索-英语-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Youglish搜索-西语-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QTTabBar合并窗口</t>
+  </si>
+  <si>
+    <t>Shift+Esc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LButton+1 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Markmap预览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mermaid预览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LButton+2 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuickLook预览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Markmap编译生成HTML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出关闭窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置顶窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加到任务栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E 长按</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt+V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制文件路径</t>
+  </si>
+  <si>
+    <t>预览文件-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>english</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explorer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koodo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>markmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potplayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关热键 so-switchon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sokey markmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sokey potplayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PixPin检测复制文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PixPin.exe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1076,7 +1081,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1164,14 +1169,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -1188,36 +1185,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <strike/>
-      <sz val="8"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <strike/>
+      <u/>
       <sz val="8"/>
-      <color rgb="FFC00000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1263,6 +1248,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,12 +1353,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1407,28 +1407,19 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1476,21 +1467,19 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1805,10 +1794,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -1819,25 +1808,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="A1" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -1877,12 +1866,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="A3" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1897,9 +1884,11 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1914,7 +1903,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1930,44 +1919,44 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1984,7 +1973,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2000,97 +1989,83 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="4">
         <v>2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>4</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G11" s="4">
         <v>6</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H11" s="4">
         <v>7</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="4">
         <v>8</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J11" s="4">
         <v>9</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K11" s="4">
         <v>0</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" s="6" t="s">
+      <c r="L11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2107,7 +2082,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2123,106 +2098,104 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" s="6" t="s">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -2234,111 +2207,111 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="L21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A21" s="6" t="s">
+      <c r="M21" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="C22" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2355,12 +2328,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2373,101 +2344,103 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L25" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="L26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="L27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2484,7 +2457,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2500,124 +2473,119 @@
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
+      <c r="A30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="F32" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="F31" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="M31" s="35"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A32" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="8"/>
-      <c r="F32" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="M32" s="27"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="8"/>
-      <c r="F33" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>140</v>
-      </c>
+      <c r="F33" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="22"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="M33" s="24"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>148</v>
+        <v>84</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="8"/>
       <c r="F34" s="10" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="8"/>
       <c r="J34" s="10"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="8"/>
+      <c r="L34" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="8"/>
       <c r="F35" s="10" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="8"/>
@@ -2628,18 +2596,18 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="11" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="8"/>
       <c r="F36" s="10" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="8"/>
@@ -2650,15 +2618,19 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="8"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="9"/>
+      <c r="F37" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="H37" s="10"/>
       <c r="I37" s="8"/>
       <c r="J37" s="10"/>
@@ -2668,19 +2640,19 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="11" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="8"/>
       <c r="F38" s="10"/>
       <c r="G38" s="9"/>
       <c r="H38" s="10"/>
-      <c r="I38" s="9"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="10"/>
-      <c r="K38" s="9"/>
+      <c r="K38" s="8"/>
       <c r="L38" s="10"/>
       <c r="M38" s="8"/>
     </row>
@@ -2758,9 +2730,9 @@
       <c r="A44" s="11"/>
       <c r="B44" s="8"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="9"/>
       <c r="H44" s="10"/>
       <c r="I44" s="9"/>
       <c r="J44" s="10"/>
@@ -2770,15 +2742,15 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
       <c r="F45" s="11"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="8"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="9"/>
       <c r="J45" s="10"/>
-      <c r="K45" s="8"/>
+      <c r="K45" s="9"/>
       <c r="L45" s="10"/>
       <c r="M45" s="8"/>
     </row>
@@ -2787,9 +2759,9 @@
       <c r="B46" s="12"/>
       <c r="C46" s="11"/>
       <c r="D46" s="12"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="10"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="11"/>
       <c r="I46" s="8"/>
       <c r="J46" s="10"/>
       <c r="K46" s="8"/>
@@ -2866,17 +2838,31 @@
       <c r="L51" s="10"/>
       <c r="M51" s="8"/>
     </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="12"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A30:M30"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:M32"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="L31:M31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2891,10 +2877,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -2905,25 +2891,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="A1" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>'shortcuts-default'!B2</f>
@@ -2975,137 +2961,137 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>237</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="14" t="str">
-        <f>'shortcuts-default'!M6</f>
+      <c r="B7" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="14" t="str">
+        <f>'shortcuts-default'!M7</f>
         <v>窗口置顶 - 切换</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3114,12 +3100,16 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
-        <v>83</v>
+      <c r="A9" s="36" t="s">
+        <v>2</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3135,127 +3125,114 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="4">
-        <f>'shortcuts-default'!B10</f>
+      <c r="A10" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="4">
+        <f>'shortcuts-default'!B11</f>
         <v>1</v>
       </c>
-      <c r="C10" s="4">
-        <f>'shortcuts-default'!C10</f>
+      <c r="C11" s="4">
+        <f>'shortcuts-default'!C11</f>
         <v>2</v>
       </c>
-      <c r="D10" s="4">
-        <f>'shortcuts-default'!D10</f>
+      <c r="D11" s="4">
+        <f>'shortcuts-default'!D11</f>
         <v>3</v>
       </c>
-      <c r="E10" s="4">
-        <f>'shortcuts-default'!E10</f>
+      <c r="E11" s="4">
+        <f>'shortcuts-default'!E11</f>
         <v>4</v>
       </c>
-      <c r="F10" s="4">
-        <f>'shortcuts-default'!F10</f>
+      <c r="F11" s="4">
+        <f>'shortcuts-default'!F11</f>
         <v>5</v>
       </c>
-      <c r="G10" s="4">
-        <f>'shortcuts-default'!G10</f>
+      <c r="G11" s="4">
+        <f>'shortcuts-default'!G11</f>
         <v>6</v>
       </c>
-      <c r="H10" s="4">
-        <f>'shortcuts-default'!H10</f>
+      <c r="H11" s="4">
+        <f>'shortcuts-default'!H11</f>
         <v>7</v>
       </c>
-      <c r="I10" s="4">
-        <f>'shortcuts-default'!I10</f>
+      <c r="I11" s="4">
+        <f>'shortcuts-default'!I11</f>
         <v>8</v>
       </c>
-      <c r="J10" s="4">
-        <f>'shortcuts-default'!J10</f>
+      <c r="J11" s="4">
+        <f>'shortcuts-default'!J11</f>
         <v>9</v>
       </c>
-      <c r="K10" s="4">
-        <f>'shortcuts-default'!K10</f>
+      <c r="K11" s="4">
+        <f>'shortcuts-default'!K11</f>
         <v>0</v>
       </c>
-      <c r="L10" s="4" t="str">
-        <f>'shortcuts-default'!L10</f>
+      <c r="L11" s="4" t="str">
+        <f>'shortcuts-default'!L11</f>
         <v>-</v>
       </c>
-      <c r="M10" s="4" t="str">
-        <f>'shortcuts-default'!M10</f>
+      <c r="M11" s="4" t="str">
+        <f>'shortcuts-default'!M11</f>
         <v>=</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="14" t="str">
-        <f>'shortcuts-default'!C11</f>
-        <v>百度地图搜索-选中文本</v>
-      </c>
-      <c r="D11" s="14" t="str">
-        <f>'shortcuts-default'!D11</f>
-        <v>w3-info</v>
-      </c>
-      <c r="E11" s="14" t="str">
-        <f>'shortcuts-default'!E11</f>
-        <v>谷歌地图搜索-选中文本</v>
-      </c>
-      <c r="F11" s="14" t="str">
-        <f>'shortcuts-default'!$F$11</f>
-        <v>华为述语查询-选中文本</v>
-      </c>
-      <c r="G11" s="14" t="str">
-        <f>'shortcuts-default'!$G$11</f>
-        <v>华为翻译-选中文本</v>
-      </c>
-      <c r="H11" s="14" t="str">
-        <f>'shortcuts-default'!$H$11</f>
-        <v>COA查询-选中文本</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="13" t="str">
-        <f>'shortcuts-default'!$B$12</f>
-        <v>keys-user.txt;keys-default.txt;</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -3264,8 +3241,8 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
-        <v>83</v>
+      <c r="A14" s="36" t="s">
+        <v>2</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3281,130 +3258,134 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="4" t="str">
-        <f>'shortcuts-default'!B15</f>
+      <c r="A15" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>'shortcuts-default'!B16</f>
         <v>q</v>
       </c>
-      <c r="C15" s="4" t="str">
-        <f>'shortcuts-default'!C15</f>
+      <c r="C16" s="4" t="str">
+        <f>'shortcuts-default'!C16</f>
         <v>w</v>
       </c>
-      <c r="D15" s="4" t="str">
-        <f>'shortcuts-default'!D15</f>
+      <c r="D16" s="4" t="str">
+        <f>'shortcuts-default'!D16</f>
         <v>e</v>
       </c>
-      <c r="E15" s="4" t="str">
-        <f>'shortcuts-default'!E15</f>
+      <c r="E16" s="4" t="str">
+        <f>'shortcuts-default'!E16</f>
         <v>r</v>
       </c>
-      <c r="F15" s="4" t="str">
-        <f>'shortcuts-default'!F15</f>
+      <c r="F16" s="4" t="str">
+        <f>'shortcuts-default'!F16</f>
         <v>t</v>
       </c>
-      <c r="G15" s="4" t="str">
-        <f>'shortcuts-default'!G15</f>
+      <c r="G16" s="4" t="str">
+        <f>'shortcuts-default'!G16</f>
         <v>y</v>
       </c>
-      <c r="H15" s="4" t="str">
-        <f>'shortcuts-default'!H15</f>
+      <c r="H16" s="4" t="str">
+        <f>'shortcuts-default'!H16</f>
         <v>u</v>
       </c>
-      <c r="I15" s="4" t="str">
-        <f>'shortcuts-default'!I15</f>
+      <c r="I16" s="4" t="str">
+        <f>'shortcuts-default'!I16</f>
         <v>i</v>
       </c>
-      <c r="J15" s="4" t="str">
-        <f>'shortcuts-default'!J15</f>
+      <c r="J16" s="4" t="str">
+        <f>'shortcuts-default'!J16</f>
         <v>o</v>
       </c>
-      <c r="K15" s="4" t="str">
-        <f>'shortcuts-default'!K15</f>
+      <c r="K16" s="4" t="str">
+        <f>'shortcuts-default'!K16</f>
         <v>p</v>
       </c>
-      <c r="L15" s="4" t="str">
-        <f>'shortcuts-default'!L15</f>
+      <c r="L16" s="4" t="str">
+        <f>'shortcuts-default'!L16</f>
         <v>[</v>
       </c>
-      <c r="M15" s="4" t="str">
-        <f>'shortcuts-default'!M15</f>
+      <c r="M16" s="4" t="str">
+        <f>'shortcuts-default'!M16</f>
         <v>]</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="14" t="str">
-        <f>'shortcuts-default'!C16</f>
-        <v>welink-msg</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="14" t="str">
-        <f>'shortcuts-default'!E16</f>
-        <v>运行/打开选中对象</v>
-      </c>
-      <c r="F16" s="14" t="str">
-        <f>'shortcuts-default'!F16</f>
-        <v>复制标题与内容-单行</v>
-      </c>
-      <c r="G16" s="14" t="str">
-        <f>'shortcuts-default'!G16</f>
-        <v>Youtube搜索选中文本</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="14" t="str">
-        <f>'shortcuts-default'!$I$16</f>
+      <c r="B17" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="14" t="str">
+        <f>'shortcuts-default'!$D$17</f>
+        <v>英语搜索-选中文本</v>
+      </c>
+      <c r="E17" s="14" t="str">
+        <f>'shortcuts-default'!E17</f>
+        <v>运行/打开-选中文本</v>
+      </c>
+      <c r="F17" s="14" t="str">
+        <f>'shortcuts-default'!F17</f>
+        <v>复制窗口标题与内容-单行-选中文本</v>
+      </c>
+      <c r="G17" s="14" t="str">
+        <f>'shortcuts-default'!G17</f>
+        <v>Youtube搜索-选中文本</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" s="14" t="str">
+        <f>'shortcuts-default'!$I$17</f>
         <v>谷歌图片搜索-选中文本</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="13" t="str">
-        <f>'shortcuts-default'!C17</f>
-        <v>hr-info</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F17" s="13" t="str">
-        <f>'shortcuts-default'!F17</f>
-        <v>复制标题与内容-两行</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>190</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="F18" s="13" t="str">
         <f>'shortcuts-default'!F18</f>
-        <v>复制窗口标题到剪贴板</v>
+        <v>复制窗口标题与内容-两行-选中文本</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -3415,147 +3396,155 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>212</v>
-      </c>
+      <c r="A19" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F19" s="13" t="str">
-        <f>'shortcuts-default'!F19</f>
-        <v>复制窗口标题到剪贴板</v>
-      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="13" t="str">
-        <f>'shortcuts-default'!K19</f>
-        <v>复制窗口进程名称到剪贴板</v>
-      </c>
+      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="4" t="str">
-        <f>'shortcuts-default'!B20</f>
+      <c r="A20" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" s="13" t="str">
+        <f>'shortcuts-default'!F20</f>
+        <v>复制窗口标题</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="13" t="str">
+        <f>'shortcuts-default'!K20</f>
+        <v>复制窗口进程名</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f>'shortcuts-default'!B21</f>
         <v>a</v>
       </c>
-      <c r="C20" s="4" t="str">
-        <f>'shortcuts-default'!C20</f>
+      <c r="C21" s="4" t="str">
+        <f>'shortcuts-default'!C21</f>
         <v>s</v>
       </c>
-      <c r="D20" s="4" t="str">
-        <f>'shortcuts-default'!D20</f>
+      <c r="D21" s="4" t="str">
+        <f>'shortcuts-default'!D21</f>
         <v>d</v>
       </c>
-      <c r="E20" s="4" t="str">
-        <f>'shortcuts-default'!E20</f>
+      <c r="E21" s="4" t="str">
+        <f>'shortcuts-default'!E21</f>
         <v>f</v>
       </c>
-      <c r="F20" s="4" t="str">
-        <f>'shortcuts-default'!F20</f>
+      <c r="F21" s="4" t="str">
+        <f>'shortcuts-default'!F21</f>
         <v>g</v>
       </c>
-      <c r="G20" s="4" t="str">
-        <f>'shortcuts-default'!G20</f>
+      <c r="G21" s="4" t="str">
+        <f>'shortcuts-default'!G21</f>
         <v>h</v>
       </c>
-      <c r="H20" s="4" t="str">
-        <f>'shortcuts-default'!H20</f>
+      <c r="H21" s="4" t="str">
+        <f>'shortcuts-default'!H21</f>
         <v>j</v>
       </c>
-      <c r="I20" s="4" t="str">
-        <f>'shortcuts-default'!I20</f>
+      <c r="I21" s="4" t="str">
+        <f>'shortcuts-default'!I21</f>
         <v>k</v>
       </c>
-      <c r="J20" s="4" t="str">
-        <f>'shortcuts-default'!J20</f>
+      <c r="J21" s="4" t="str">
+        <f>'shortcuts-default'!J21</f>
         <v>l</v>
       </c>
-      <c r="K20" s="4" t="str">
-        <f>'shortcuts-default'!K20</f>
+      <c r="K21" s="4" t="str">
+        <f>'shortcuts-default'!K21</f>
         <v>;</v>
       </c>
-      <c r="L20" s="4" t="str">
-        <f>'shortcuts-default'!L20</f>
+      <c r="L21" s="4" t="str">
+        <f>'shortcuts-default'!L21</f>
         <v>'</v>
       </c>
-      <c r="M20" s="4" t="str">
-        <f>'shortcuts-default'!M20</f>
+      <c r="M21" s="4" t="str">
+        <f>'shortcuts-default'!M21</f>
         <v>\</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="14" t="str">
-        <f>'shortcuts-default'!B21</f>
-        <v>文本编辑器打开-选中文件</v>
-      </c>
-      <c r="C21" s="14" t="str">
-        <f>'shortcuts-default'!C21</f>
-        <v>xfold笔记收藏 选中文本</v>
-      </c>
-      <c r="D21" s="14" t="str">
-        <f>'shortcuts-default'!D21</f>
+      <c r="B22" s="14" t="str">
+        <f>'shortcuts-default'!B22</f>
+        <v>文本编辑器打开-选中文本</v>
+      </c>
+      <c r="C22" s="14" t="str">
+        <f>'shortcuts-default'!C22</f>
+        <v>保存笔记-选中文本</v>
+      </c>
+      <c r="D22" s="14" t="str">
+        <f>'shortcuts-default'!D22</f>
         <v>豆瓣搜索-选中文本</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="F21" s="14" t="str">
-        <f>'shortcuts-default'!F21</f>
+      <c r="E22" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22" s="14" t="str">
+        <f>'shortcuts-default'!F22</f>
         <v>谷歌搜索-选中文本</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
+      <c r="G22" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3566,20 +3555,13 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
-        <v>83</v>
+      <c r="A24" s="36" t="s">
+        <v>2</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="13" t="str">
-        <f>'shortcuts-default'!C24</f>
-        <v>查看xfold收藏的笔记</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>190</v>
-      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -3590,136 +3572,153 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="4" t="str">
-        <f>'shortcuts-default'!B25</f>
+      <c r="A25" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="13" t="str">
+        <f>'shortcuts-default'!C25</f>
+        <v>打开笔记保存文件</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f>'shortcuts-default'!B26</f>
         <v>z</v>
       </c>
-      <c r="C25" s="4" t="str">
-        <f>'shortcuts-default'!C25</f>
+      <c r="C26" s="4" t="str">
+        <f>'shortcuts-default'!C26</f>
         <v>x</v>
       </c>
-      <c r="D25" s="4" t="str">
-        <f>'shortcuts-default'!D25</f>
+      <c r="D26" s="4" t="str">
+        <f>'shortcuts-default'!D26</f>
         <v>c</v>
       </c>
-      <c r="E25" s="4" t="str">
-        <f>'shortcuts-default'!E25</f>
+      <c r="E26" s="4" t="str">
+        <f>'shortcuts-default'!E26</f>
         <v>v</v>
       </c>
-      <c r="F25" s="4" t="str">
-        <f>'shortcuts-default'!F25</f>
+      <c r="F26" s="4" t="str">
+        <f>'shortcuts-default'!F26</f>
         <v>b</v>
       </c>
-      <c r="G25" s="4" t="str">
-        <f>'shortcuts-default'!G25</f>
+      <c r="G26" s="4" t="str">
+        <f>'shortcuts-default'!G26</f>
         <v>n</v>
       </c>
-      <c r="H25" s="4" t="str">
-        <f>'shortcuts-default'!H25</f>
+      <c r="H26" s="4" t="str">
+        <f>'shortcuts-default'!H26</f>
         <v>m</v>
       </c>
-      <c r="I25" s="4" t="str">
-        <f>'shortcuts-default'!I25</f>
+      <c r="I26" s="4" t="str">
+        <f>'shortcuts-default'!I26</f>
         <v>,</v>
       </c>
-      <c r="J25" s="4" t="str">
-        <f>'shortcuts-default'!J25</f>
+      <c r="J26" s="4" t="str">
+        <f>'shortcuts-default'!J26</f>
         <v>.</v>
       </c>
-      <c r="K25" s="4" t="str">
-        <f>'shortcuts-default'!K25</f>
+      <c r="K26" s="4" t="str">
+        <f>'shortcuts-default'!K26</f>
         <v>Space</v>
       </c>
-      <c r="L25" s="4" t="str">
-        <f>'shortcuts-default'!L25</f>
+      <c r="L26" s="4" t="str">
+        <f>'shortcuts-default'!L26</f>
         <v>LAlt</v>
       </c>
-      <c r="M25" s="4" t="str">
-        <f>'shortcuts-default'!M25</f>
+      <c r="M26" s="4" t="str">
+        <f>'shortcuts-default'!M26</f>
         <v>Tab</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="14" t="str">
-        <f>'shortcuts-default'!B26</f>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="14" t="str">
+        <f>'shortcuts-default'!B27</f>
         <v>知乎搜索-选中文本</v>
       </c>
-      <c r="C26" s="14" t="str">
-        <f>'shortcuts-default'!$C$26</f>
-        <v>Forvo发音查询-选中文本</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="14" t="str">
-        <f>'shortcuts-default'!E26</f>
-        <v>预览查看-选中文件</v>
-      </c>
-      <c r="F26" s="14" t="str">
-        <f>'shortcuts-default'!F26</f>
-        <v>百度搜索-选中文本</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I26" s="14" t="str">
-        <f>'shortcuts-default'!I26</f>
-        <v>Youglish-en</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="14" t="str">
-        <f>'shortcuts-default'!K26</f>
+      <c r="C27" s="14" t="str">
+        <f>'shortcuts-default'!$C$27</f>
+        <v>Forvo发音搜索-选中文本</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="14" t="str">
+        <f>'shortcuts-default'!E27</f>
+        <v>预览-选中文本</v>
+      </c>
+      <c r="F27" s="14" t="str">
+        <f>'shortcuts-default'!F27</f>
+        <v>Bing搜索-选中文本</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" s="14" t="str">
+        <f>'shortcuts-default'!I27</f>
+        <v>Youglish搜索-英语-选中文本</v>
+      </c>
+      <c r="J27" s="14" t="str">
+        <f>'shortcuts-default'!J27</f>
+        <v>Youglish搜索-西语-选中文本</v>
+      </c>
+      <c r="K27" s="14" t="str">
+        <f>'shortcuts-default'!K27</f>
         <v>Enter</v>
       </c>
-      <c r="L26" s="14" t="str">
-        <f>'shortcuts-default'!L26</f>
+      <c r="L27" s="14" t="str">
+        <f>'shortcuts-default'!L27</f>
         <v>Delete</v>
       </c>
-      <c r="M26" s="14" t="str">
-        <f>'shortcuts-default'!M26</f>
+      <c r="M27" s="14" t="str">
+        <f>'shortcuts-default'!M27</f>
         <v>Alt+Tab</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="13" t="str">
-        <f>'shortcuts-default'!$E$27</f>
-        <v>Forvo发音查询-选中文本</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -3729,23 +3728,15 @@
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
-        <v>83</v>
+      <c r="A29" s="36" t="s">
+        <v>2</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>242</v>
-      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
-        <v>234</v>
-      </c>
+      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -3754,538 +3745,525 @@
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
+      <c r="A30" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="F32" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="F31" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="M31" s="35"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A32" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="I32" s="25"/>
-      <c r="J32" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="K32" s="37"/>
-      <c r="L32" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="M32" s="27"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>124</v>
+        <v>67</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="22"/>
+      <c r="H33" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" s="22"/>
+      <c r="J33" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" s="34"/>
+      <c r="L33" s="18" t="s">
+        <v>240</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>185</v>
+        <v>69</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="L35" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="M35" s="27"/>
+        <v>70</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="11" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>50</v>
+        <v>114</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J36" s="10"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="18" t="s">
+        <v>243</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="8"/>
+      <c r="J37" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="K37" s="34"/>
+      <c r="L37" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="11" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="M38" s="41"/>
-    </row>
-    <row r="39" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="I38" s="34"/>
+      <c r="J38" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="11" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="I39" s="37"/>
-      <c r="J39" s="24" t="s">
+      <c r="F40" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="22"/>
+      <c r="H40" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J40" s="10"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K41" s="22"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="11"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K39" s="25"/>
-      <c r="L39" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M39" s="8" t="s">
+      <c r="D42" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L42" s="18"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" s="11"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="8"/>
+      <c r="F43" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="I43" s="8" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A40" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="J41" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="K41" s="25"/>
-      <c r="L41" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="M41" s="39"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A42" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H42" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="I42" s="37"/>
-      <c r="J42" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L42" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="M42" s="21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A43" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I43" s="9"/>
-      <c r="J43" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="K43" s="25"/>
-      <c r="L43" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="M43" s="21" t="s">
-        <v>119</v>
-      </c>
+      <c r="J43" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="L43" s="18"/>
+      <c r="M43" s="8"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="11"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="L44" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="M44" s="21" t="s">
-        <v>226</v>
-      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="8"/>
+      <c r="F44" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J44" s="10"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="8"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="8"/>
       <c r="C45" s="11"/>
       <c r="D45" s="8"/>
-      <c r="F45" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="G45" s="37"/>
+      <c r="F45" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>224</v>
+      </c>
       <c r="H45" s="10"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="M45" s="21" t="s">
-        <v>228</v>
-      </c>
+      <c r="J45" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="K45" s="22"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="8"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="11"/>
       <c r="B46" s="8"/>
       <c r="C46" s="11"/>
       <c r="D46" s="8"/>
-      <c r="F46" s="11" t="s">
-        <v>151</v>
+      <c r="F46" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="M46" s="21" t="s">
-        <v>230</v>
-      </c>
+      <c r="J46" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="L46" s="18"/>
+      <c r="M46" s="8"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="11"/>
       <c r="B47" s="8"/>
       <c r="C47" s="11"/>
       <c r="D47" s="8"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="8"/>
+      <c r="F47" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="H47" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47" s="34"/>
       <c r="J47" s="10"/>
       <c r="K47" s="8"/>
-      <c r="L47" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="M47" s="21" t="s">
-        <v>230</v>
-      </c>
+      <c r="L47" s="18"/>
+      <c r="M47" s="8"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="11"/>
       <c r="B48" s="8"/>
       <c r="C48" s="11"/>
       <c r="D48" s="8"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="8"/>
+      <c r="F48" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I48" s="9"/>
       <c r="J48" s="10"/>
       <c r="K48" s="8"/>
-      <c r="L48" s="10"/>
+      <c r="L48" s="18"/>
       <c r="M48" s="8"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
@@ -4299,7 +4277,7 @@
       <c r="I49" s="8"/>
       <c r="J49" s="10"/>
       <c r="K49" s="8"/>
-      <c r="L49" s="10"/>
+      <c r="L49" s="18"/>
       <c r="M49" s="8"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
@@ -4307,13 +4285,15 @@
       <c r="B50" s="8"/>
       <c r="C50" s="11"/>
       <c r="D50" s="8"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="8"/>
+      <c r="F50" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" s="34"/>
       <c r="H50" s="10"/>
       <c r="I50" s="8"/>
       <c r="J50" s="10"/>
       <c r="K50" s="8"/>
-      <c r="L50" s="10"/>
+      <c r="L50" s="18"/>
       <c r="M50" s="8"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
@@ -4321,41 +4301,84 @@
       <c r="B51" s="8"/>
       <c r="C51" s="11"/>
       <c r="D51" s="8"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="8"/>
+      <c r="F51" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="H51" s="10"/>
       <c r="I51" s="8"/>
       <c r="J51" s="10"/>
       <c r="K51" s="8"/>
-      <c r="L51" s="10"/>
+      <c r="L51" s="18"/>
       <c r="M51" s="8"/>
     </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A52" s="11"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="8"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L38:M38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H42:I46">
+    <sortCondition ref="H41:H46"/>
+  </sortState>
+  <mergeCells count="15">
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="A30:M30"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
     <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H42:I42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{BA1C05FF-504E-4DBD-A882-296C57B60BCE}"/>
+    <hyperlink ref="A8:A10" r:id="rId2" display="LButton+双键" xr:uid="{A269255A-40C0-417D-BD06-C4A51021A78A}"/>
+    <hyperlink ref="A9" r:id="rId3" xr:uid="{59B8ECB4-D609-4FA0-B10A-662CB6AA763C}"/>
+    <hyperlink ref="A10" r:id="rId4" xr:uid="{17100E6C-267E-4FCA-A7BE-88F54E2F5E20}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{2FCEFFF3-11ED-4E27-8058-366A2F848349}"/>
+    <hyperlink ref="A3:A5" r:id="rId6" display="单键" xr:uid="{F60B248C-9E41-4034-BCBA-17C11EC5FF15}"/>
+    <hyperlink ref="A4" r:id="rId7" xr:uid="{F00A0CAF-92FF-4687-BE8B-9B0A62952657}"/>
+    <hyperlink ref="A5" r:id="rId8" xr:uid="{DFF2938A-EC9A-4387-BAF6-6E29954AB284}"/>
+    <hyperlink ref="A12" r:id="rId9" xr:uid="{91F6EBA7-A647-4CF6-A2E5-26F666FA1D4D}"/>
+    <hyperlink ref="A13:A15" r:id="rId10" display="LButton+双键" xr:uid="{EAAB764A-A377-4139-8981-76C0986FBC51}"/>
+    <hyperlink ref="A14" r:id="rId11" xr:uid="{EECDF51C-B7D1-4460-AD51-1FE0F812C40A}"/>
+    <hyperlink ref="A15" r:id="rId12" xr:uid="{B66923FB-9369-4E44-8999-85A950DBBDD0}"/>
+    <hyperlink ref="A17" r:id="rId13" xr:uid="{8ABC4F64-5649-4A72-AF0F-837AA14FB410}"/>
+    <hyperlink ref="A18:A20" r:id="rId14" display="LButton+双键" xr:uid="{C28F27FD-E67F-48F0-ABE8-B94220FCF9F8}"/>
+    <hyperlink ref="A19" r:id="rId15" xr:uid="{3920D52E-B267-42CB-9D43-EA4FEC948839}"/>
+    <hyperlink ref="A20" r:id="rId16" xr:uid="{BB06ED53-1DC8-4056-A564-4EE3A34C90DB}"/>
+    <hyperlink ref="A22" r:id="rId17" xr:uid="{BF5B579C-EA41-41F3-991C-9EFB356755B4}"/>
+    <hyperlink ref="A23:A25" r:id="rId18" display="LButton+双键" xr:uid="{D2DE0AD7-C430-41F3-AFF4-BB9D40D9E44E}"/>
+    <hyperlink ref="A24" r:id="rId19" xr:uid="{FB05EF6E-66D7-426F-BFA1-FCF85E22BA0A}"/>
+    <hyperlink ref="A25" r:id="rId20" xr:uid="{6B4E96EA-DE80-440B-90DB-0BE2495747D6}"/>
+    <hyperlink ref="A27" r:id="rId21" xr:uid="{91812B46-2DDA-4057-B589-FBA7914D71C3}"/>
+    <hyperlink ref="A28:A30" r:id="rId22" display="LButton+双键" xr:uid="{AE0AC81A-23C7-46F2-8B51-1F6FED92E8AE}"/>
+    <hyperlink ref="A29" r:id="rId23" xr:uid="{A20BE745-828B-4B6B-BA89-B92EB58EF79E}"/>
+    <hyperlink ref="A30" r:id="rId24" xr:uid="{637253D0-88F5-48D5-9A99-ED5D28165DEC}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId25"/>
+  <legacyDrawing r:id="rId26"/>
 </worksheet>
 </file>